--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1985.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1985.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"exchange" + 0.001*"foreign" + 0.001*"import" + 0.001*"bank" + 0.001*"export" + 0.001*"rate" + 0.001*"may" + 0.001*"currency" + 0.001*"payment" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.010*"import" + 0.008*"exchange" + 0.007*"foreign" + 0.006*"export" + 0.006*"may" + 0.005*"rate" + 0.005*"payment" + 0.005*"bank" + 0.004*"country" + 0.004*"currency"</t>
-  </si>
-  <si>
-    <t>0.020*"exchange" + 0.019*"import" + 0.017*"foreign" + 0.015*"bank" + 0.015*"payment" + 0.014*"export" + 0.011*"currency" + 0.011*"may" + 0.010*"account" + 0.008*"rate"</t>
-  </si>
-  <si>
-    <t>0.022*"foreign" + 0.020*"import" + 0.018*"bank" + 0.017*"exchange" + 0.014*"export" + 0.013*"may" + 0.012*"currency" + 0.009*"rate" + 0.009*"percent" + 0.009*"account"</t>
-  </si>
-  <si>
-    <t>0.004*"foreign" + 0.003*"import" + 0.003*"exchange" + 0.003*"bank" + 0.002*"export" + 0.002*"currency" + 0.002*"may" + 0.002*"country" + 0.002*"account" + 0.002*"payment"</t>
+    <t>0.048*"exchange" + 0.042*"rate" + 0.023*"foreign" + 0.022*"currency" + 0.021*"u" + 0.018*"year" + 0.015*"market" + 0.015*"proceeds" + 0.015*"export" + 0.013*"travel"</t>
+  </si>
+  <si>
+    <t>0.088*"import" + 0.033*"export" + 0.028*"payment" + 0.023*"license" + 0.018*"good" + 0.016*"require" + 0.015*"subject" + 0.015*"certain" + 0.013*"invisibles" + 0.012*"trade"</t>
+  </si>
+  <si>
+    <t>0.066*"bank" + 0.044*"foreign" + 0.036*"may" + 0.033*"account" + 0.024*"exchange" + 0.024*"currency" + 0.018*"central" + 0.017*"fund" + 0.016*"nonresident" + 0.013*"credit"</t>
+  </si>
+  <si>
+    <t>0.039*"country" + 0.031*"dollar" + 0.019*"export" + 0.016*"republic" + 0.016*"prohibit" + 0.015*"product" + 0.012*"agreement" + 0.011*"south" + 0.011*"however" + 0.010*"member"</t>
+  </si>
+  <si>
+    <t>0.035*"percent" + 0.027*"gold" + 0.026*"capital" + 0.022*"investment" + 0.022*"foreign" + 0.015*"abroad" + 0.013*"transfer" + 0.012*"tax" + 0.012*"resident" + 0.011*"may"</t>
   </si>
 </sst>
 </file>
